--- a/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-message-setting.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_message/hzero_message/hzero-message-setting.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\WorkDev\hzero-generator\src\main\resources\static\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="14220" tabRatio="597"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
-    <sheet name="项目层发送设置" r:id="rId5" sheetId="2"/>
+    <sheet name="项目层发送设置" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
-    <definedName name="qwe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
-    <definedName name="wqewqe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -33,7 +28,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -52,7 +46,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -65,7 +58,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -84,7 +76,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -103,7 +94,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -122,7 +112,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -154,7 +143,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -173,7 +161,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -192,7 +179,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -214,7 +200,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -235,7 +220,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -256,7 +240,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -277,7 +260,6 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -298,7 +280,6 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -310,7 +291,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -329,7 +309,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -341,7 +320,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -360,7 +338,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -379,7 +356,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -398,7 +374,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -417,7 +392,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -465,7 +439,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -484,7 +457,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -503,7 +475,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -522,7 +493,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -534,7 +504,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -553,7 +522,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -572,7 +540,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -592,7 +559,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -611,7 +577,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -631,7 +596,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -650,7 +614,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -662,7 +625,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -681,7 +643,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -700,7 +661,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -724,7 +684,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -743,7 +702,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -762,7 +720,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -781,7 +738,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -800,7 +756,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -812,7 +767,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -831,7 +785,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -842,7 +795,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -863,7 +815,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -874,7 +825,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -893,7 +843,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -912,7 +861,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -936,7 +884,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -955,7 +902,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -975,7 +921,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -995,7 +940,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -1015,7 +959,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -1036,7 +979,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -1056,7 +998,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1091,7 +1032,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1112,7 +1052,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1124,7 +1063,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1143,7 +1081,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1164,7 +1101,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1183,7 +1119,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1196,7 +1131,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1215,7 +1149,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1234,7 +1167,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1253,7 +1185,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1268,7 +1199,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1287,7 +1217,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1306,7 +1235,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1325,7 +1253,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1344,7 +1271,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1360,7 +1286,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1370,7 +1295,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1389,7 +1313,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1405,7 +1328,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1415,7 +1337,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1434,7 +1355,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1449,7 +1369,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1468,7 +1387,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1487,7 +1405,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1507,7 +1424,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1531,7 +1447,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1550,7 +1465,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1569,7 +1483,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1589,7 +1502,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1610,7 +1522,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1621,7 +1532,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1631,7 +1541,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1643,7 +1552,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1662,7 +1570,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1681,7 +1588,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1700,7 +1606,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1720,7 +1625,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1739,7 +1643,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1758,7 +1661,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1778,7 +1680,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1797,7 +1698,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1816,7 +1716,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1835,7 +1734,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1855,7 +1753,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1867,7 +1764,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1878,7 +1774,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1888,7 +1783,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1900,7 +1794,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1919,7 +1812,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1931,7 +1823,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1950,7 +1841,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1970,7 +1860,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -2022,7 +1911,7 @@
     <t>#env_id</t>
   </si>
   <si>
-    <t>#event_name</t>
+    <t>event_name</t>
   </si>
   <si>
     <t>pm_enable</t>
@@ -2310,12 +2199,47 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
-  <fonts count="37">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="41">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="53"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="48"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="42"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -2351,38 +2275,161 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="DengXian"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFC55A11"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF2E75B6"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
-      <name val="DengXian"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2403,130 +2450,45 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF2E75B6"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <sz val="12"/>
+      <color rgb="FF548235"/>
+      <name val="DengXian"/>
       <charset val="134"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2557,8 +2519,194 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -2659,13 +2807,259 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2674,32 +3068,44 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2709,53 +3115,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -2828,9 +3250,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3088,285 +3507,297 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="15.5546875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="2" width="10.33203125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="28.109375" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="3" width="35.33203125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="38.5546875" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="21.5546875" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="22.0" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="24.5546875" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="27.0" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="19.109375" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="18.5546875" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="13.109375" collapsed="false"/>
-    <col min="14" max="1025" customWidth="true" width="10.33203125" collapsed="false"/>
+    <col min="1" max="1" width="15.5555555555556" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" style="6" customWidth="1"/>
+    <col min="3" max="3" width="28.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="35.3333333333333" style="7" customWidth="1"/>
+    <col min="5" max="5" width="38.5555555555556" customWidth="1"/>
+    <col min="6" max="6" width="23.4444444444444" customWidth="1"/>
+    <col min="7" max="7" width="21.5555555555556" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="9" max="9" width="24.5555555555556" customWidth="1"/>
+    <col min="10" max="10" width="27" customWidth="1"/>
+    <col min="11" max="11" width="19.1111111111111" customWidth="1"/>
+    <col min="12" max="12" width="18.5555555555556" customWidth="1"/>
+    <col min="13" max="13" width="13.1111111111111" customWidth="1"/>
+    <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="64.5" customHeight="1">
-      <c r="A1" s="4"/>
-      <c r="C1" s="28" t="s">
+    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+      <c r="A1" s="8"/>
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" spans="1:8" ht="18">
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="27" t="s">
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+    </row>
+    <row r="2" spans="5:5">
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" ht="49.5" customHeight="1" spans="3:7">
+      <c r="C3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="29" t="s">
+      <c r="D3" s="12"/>
+      <c r="E3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-    </row>
-    <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="30" t="s">
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" spans="3:7">
+      <c r="C4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="4"/>
+    <row r="5" spans="1:3">
+      <c r="A5" s="8"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18">
-      <c r="C7" s="10" t="s">
+    <row r="7" spans="3:5">
+      <c r="C7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="C8" s="13" t="s">
+    <row r="8" spans="3:5">
+      <c r="C8" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="15"/>
-    </row>
-    <row r="9" spans="1:8" ht="51.75">
-      <c r="C9" s="16" t="s">
+      <c r="E8" s="23"/>
+    </row>
+    <row r="9" ht="52.2" spans="3:6">
+      <c r="C9" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="26" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="51.75">
-      <c r="C10" s="19" t="s">
+    <row r="10" ht="52.2" spans="3:5">
+      <c r="C10" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69">
-      <c r="C11" s="13" t="s">
+    <row r="11" ht="69.6" spans="3:5">
+      <c r="C11" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="26" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="C12" s="13" t="s">
+    <row r="12" spans="3:5">
+      <c r="C12" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="15"/>
-    </row>
-    <row r="15" spans="1:8" ht="34.5">
-      <c r="C15" s="21" t="s">
+    <row r="13" spans="3:5">
+      <c r="C13" s="21"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="23"/>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="23"/>
+    </row>
+    <row r="15" ht="34.8" spans="3:5">
+      <c r="C15" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:5">
+    <row r="18" spans="3:3">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-    </row>
-    <row r="20" spans="3:5" ht="18">
-      <c r="C20" s="24" t="s">
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="18">
-      <c r="C21" s="24" t="s">
+    <row r="21" spans="3:4">
+      <c r="C21" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="18">
-      <c r="C22" s="24" t="s">
+    <row r="22" spans="3:4">
+      <c r="C22" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="18">
-      <c r="C23" s="24" t="s">
+    <row r="23" spans="3:4">
+      <c r="C23" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="69" customHeight="1">
-      <c r="C25" s="25" t="s">
+    <row r="25" ht="69" customHeight="1" spans="3:5">
+      <c r="C25" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="27"/>
-    </row>
-    <row r="26" spans="3:5" ht="14.25" customHeight="1">
-      <c r="C26" s="14" t="s">
+      <c r="E25" s="12"/>
+    </row>
+    <row r="26" ht="14.25" customHeight="1" spans="3:5">
+      <c r="C26" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="27"/>
-    </row>
-    <row r="27" spans="3:5" ht="51.75">
-      <c r="C27" s="26" t="s">
+      <c r="E26" s="12"/>
+    </row>
+    <row r="27" ht="52.2" spans="3:3">
+      <c r="C27" s="35" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <cols>
+    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="6" max="6" width="20.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="10" max="10" width="15.4166666666667" customWidth="1"/>
+    <col min="11" max="11" width="14.1666666666667" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="32">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="33">
+      <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="34">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="35">
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="36">
+    <row r="4" spans="5:7">
+      <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="37">
+      <c r="F4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="38">
+      <c r="G4" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3376,25 +3807,25 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" t="s" s="39">
+      <c r="D7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E7" t="s" s="40">
+      <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="41">
+      <c r="F7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G7" t="s" s="42">
+      <c r="G7" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H7" t="s" s="43">
+      <c r="H7" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I7" t="s" s="44">
+      <c r="I7" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="J7" t="s" s="45">
+      <c r="J7" s="3" t="s">
         <v>59</v>
       </c>
       <c r="K7" t="s">
@@ -3407,7 +3838,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="5:13">
       <c r="E8" t="s">
         <v>63</v>
       </c>
@@ -3436,7 +3867,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="5:13">
       <c r="E9" t="s">
         <v>68</v>
       </c>
@@ -3465,7 +3896,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="5:13">
       <c r="E10" t="s">
         <v>70</v>
       </c>
@@ -3494,7 +3925,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="5:13">
       <c r="E11" t="s">
         <v>72</v>
       </c>
@@ -3523,7 +3954,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="5:13">
       <c r="E12" t="s">
         <v>74</v>
       </c>
@@ -3552,7 +3983,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="5:13">
       <c r="E13" t="s">
         <v>76</v>
       </c>
@@ -3581,7 +4012,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="5:12">
       <c r="E14" t="s">
         <v>78</v>
       </c>
@@ -3607,7 +4038,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="5:12">
       <c r="E15" t="s">
         <v>83</v>
       </c>
@@ -3633,7 +4064,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="5:12">
       <c r="E16" t="s">
         <v>85</v>
       </c>
@@ -3659,7 +4090,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="5:12">
       <c r="E17" t="s">
         <v>87</v>
       </c>
@@ -3685,7 +4116,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="5:12">
       <c r="E18" t="s">
         <v>90</v>
       </c>
@@ -3711,7 +4142,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="5:12">
       <c r="E19" t="s">
         <v>92</v>
       </c>
@@ -3737,7 +4168,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="5:12">
       <c r="E20" t="s">
         <v>94</v>
       </c>
@@ -3763,7 +4194,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="5:12">
       <c r="E21" t="s">
         <v>96</v>
       </c>
@@ -3789,7 +4220,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="5:12">
       <c r="E22" t="s">
         <v>98</v>
       </c>
@@ -3815,7 +4246,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="5:12">
       <c r="E23" t="s">
         <v>100</v>
       </c>
@@ -3841,7 +4272,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="5:12">
       <c r="E24" t="s">
         <v>102</v>
       </c>
@@ -3867,7 +4298,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="5:12">
       <c r="E25" t="s">
         <v>104</v>
       </c>
@@ -3893,7 +4324,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="5:12">
       <c r="E26" t="s">
         <v>106</v>
       </c>
@@ -3919,7 +4350,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="5:12">
       <c r="E27" t="s">
         <v>108</v>
       </c>
@@ -3945,7 +4376,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="5:12">
       <c r="E28" t="s">
         <v>110</v>
       </c>
@@ -3971,7 +4402,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="5:12">
       <c r="E29" t="s">
         <v>112</v>
       </c>
@@ -3997,7 +4428,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="5:12">
       <c r="E30" t="s">
         <v>114</v>
       </c>
@@ -4023,7 +4454,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -4033,23 +4464,23 @@
       <c r="C32" t="s">
         <v>52</v>
       </c>
-      <c r="D32" t="s" s="46">
+      <c r="D32" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E32" t="s" s="47">
+      <c r="E32" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F32" t="s" s="48">
+      <c r="F32" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="G32" t="s" s="49">
+      <c r="G32" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="H32" t="s" s="50">
+      <c r="H32" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="5:8">
       <c r="E33" t="s">
         <v>120</v>
       </c>
@@ -4059,11 +4490,12 @@
       <c r="G33" t="s">
         <v>66</v>
       </c>
-      <c r="H33">
+      <c r="H33" t="str">
         <f>项目层发送设置!$E$14</f>
-      </c>
-    </row>
-    <row r="34">
+        <v>notify_message_setting-14</v>
+      </c>
+    </row>
+    <row r="34" spans="5:8">
       <c r="E34" t="s">
         <v>122</v>
       </c>
@@ -4073,11 +4505,12 @@
       <c r="G34" t="s">
         <v>66</v>
       </c>
-      <c r="H34">
+      <c r="H34" t="str">
         <f>项目层发送设置!$E$15</f>
-      </c>
-    </row>
-    <row r="35">
+        <v>notify_message_setting-15</v>
+      </c>
+    </row>
+    <row r="35" spans="5:8">
       <c r="E35" t="s">
         <v>123</v>
       </c>
@@ -4087,11 +4520,12 @@
       <c r="G35" t="s">
         <v>66</v>
       </c>
-      <c r="H35">
+      <c r="H35" t="str">
         <f>项目层发送设置!$E$15</f>
-      </c>
-    </row>
-    <row r="36">
+        <v>notify_message_setting-15</v>
+      </c>
+    </row>
+    <row r="36" spans="5:8">
       <c r="E36" t="s">
         <v>125</v>
       </c>
@@ -4101,11 +4535,12 @@
       <c r="G36" t="s">
         <v>66</v>
       </c>
-      <c r="H36">
+      <c r="H36" t="str">
         <f>项目层发送设置!$E$16</f>
-      </c>
-    </row>
-    <row r="37">
+        <v>notify_message_setting-16</v>
+      </c>
+    </row>
+    <row r="37" spans="5:8">
       <c r="E37" t="s">
         <v>126</v>
       </c>
@@ -4115,11 +4550,12 @@
       <c r="G37" t="s">
         <v>66</v>
       </c>
-      <c r="H37">
+      <c r="H37" t="str">
         <f>项目层发送设置!$E$16</f>
-      </c>
-    </row>
-    <row r="38">
+        <v>notify_message_setting-16</v>
+      </c>
+    </row>
+    <row r="38" spans="5:8">
       <c r="E38" t="s">
         <v>127</v>
       </c>
@@ -4129,11 +4565,12 @@
       <c r="G38" t="s">
         <v>66</v>
       </c>
-      <c r="H38">
+      <c r="H38" t="str">
         <f>项目层发送设置!$E$17</f>
-      </c>
-    </row>
-    <row r="39">
+        <v>notify_message_setting-17</v>
+      </c>
+    </row>
+    <row r="39" spans="5:8">
       <c r="E39" t="s">
         <v>129</v>
       </c>
@@ -4143,11 +4580,12 @@
       <c r="G39" t="s">
         <v>66</v>
       </c>
-      <c r="H39">
+      <c r="H39" t="str">
         <f>项目层发送设置!$E$18</f>
-      </c>
-    </row>
-    <row r="40">
+        <v>notify_message_setting-18</v>
+      </c>
+    </row>
+    <row r="40" spans="5:8">
       <c r="E40" t="s">
         <v>131</v>
       </c>
@@ -4157,11 +4595,12 @@
       <c r="G40" t="s">
         <v>66</v>
       </c>
-      <c r="H40">
+      <c r="H40" t="str">
         <f>项目层发送设置!$E$19</f>
-      </c>
-    </row>
-    <row r="41">
+        <v>notify_message_setting-19</v>
+      </c>
+    </row>
+    <row r="41" spans="5:8">
       <c r="E41" t="s">
         <v>133</v>
       </c>
@@ -4171,11 +4610,12 @@
       <c r="G41" t="s">
         <v>66</v>
       </c>
-      <c r="H41">
+      <c r="H41" t="str">
         <f>项目层发送设置!$E$20</f>
-      </c>
-    </row>
-    <row r="42">
+        <v>notify_message_setting-20</v>
+      </c>
+    </row>
+    <row r="42" spans="5:8">
       <c r="E42" t="s">
         <v>135</v>
       </c>
@@ -4185,11 +4625,12 @@
       <c r="G42" t="s">
         <v>66</v>
       </c>
-      <c r="H42">
+      <c r="H42" t="str">
         <f>项目层发送设置!$E$21</f>
-      </c>
-    </row>
-    <row r="43">
+        <v>notify_message_setting-21</v>
+      </c>
+    </row>
+    <row r="43" spans="5:8">
       <c r="E43" t="s">
         <v>136</v>
       </c>
@@ -4199,11 +4640,12 @@
       <c r="G43" t="s">
         <v>66</v>
       </c>
-      <c r="H43">
+      <c r="H43" t="str">
         <f>项目层发送设置!$E$22</f>
-      </c>
-    </row>
-    <row r="44">
+        <v>notify_message_setting-22</v>
+      </c>
+    </row>
+    <row r="44" spans="5:8">
       <c r="E44" t="s">
         <v>138</v>
       </c>
@@ -4213,11 +4655,12 @@
       <c r="G44" t="s">
         <v>66</v>
       </c>
-      <c r="H44">
+      <c r="H44" t="str">
         <f>项目层发送设置!$E$23</f>
-      </c>
-    </row>
-    <row r="45">
+        <v>notify_message_setting-23</v>
+      </c>
+    </row>
+    <row r="45" spans="5:8">
       <c r="E45" t="s">
         <v>139</v>
       </c>
@@ -4227,11 +4670,12 @@
       <c r="G45" t="s">
         <v>66</v>
       </c>
-      <c r="H45">
+      <c r="H45" t="str">
         <f>项目层发送设置!$E$24</f>
-      </c>
-    </row>
-    <row r="46">
+        <v>notify_message_setting-24</v>
+      </c>
+    </row>
+    <row r="46" spans="5:8">
       <c r="E46" t="s">
         <v>140</v>
       </c>
@@ -4241,11 +4685,12 @@
       <c r="G46" t="s">
         <v>66</v>
       </c>
-      <c r="H46">
+      <c r="H46" t="str">
         <f>项目层发送设置!$E$25</f>
-      </c>
-    </row>
-    <row r="47">
+        <v>notify_message_setting-25</v>
+      </c>
+    </row>
+    <row r="47" spans="5:8">
       <c r="E47" t="s">
         <v>141</v>
       </c>
@@ -4255,11 +4700,12 @@
       <c r="G47" t="s">
         <v>66</v>
       </c>
-      <c r="H47">
+      <c r="H47" t="str">
         <f>项目层发送设置!$E$26</f>
-      </c>
-    </row>
-    <row r="48">
+        <v>notify_message_setting-26</v>
+      </c>
+    </row>
+    <row r="48" spans="5:8">
       <c r="E48" t="s">
         <v>142</v>
       </c>
@@ -4269,11 +4715,12 @@
       <c r="G48" t="s">
         <v>66</v>
       </c>
-      <c r="H48">
+      <c r="H48" t="str">
         <f>项目层发送设置!$E$27</f>
-      </c>
-    </row>
-    <row r="49">
+        <v>notify_message_setting-27</v>
+      </c>
+    </row>
+    <row r="49" spans="5:8">
       <c r="E49" t="s">
         <v>143</v>
       </c>
@@ -4283,11 +4730,12 @@
       <c r="G49" t="s">
         <v>66</v>
       </c>
-      <c r="H49">
+      <c r="H49" t="str">
         <f>项目层发送设置!$E$28</f>
-      </c>
-    </row>
-    <row r="50">
+        <v>notify_message_setting-28</v>
+      </c>
+    </row>
+    <row r="50" spans="5:8">
       <c r="E50" t="s">
         <v>144</v>
       </c>
@@ -4297,11 +4745,12 @@
       <c r="G50" t="s">
         <v>66</v>
       </c>
-      <c r="H50">
+      <c r="H50" t="str">
         <f>项目层发送设置!$E$29</f>
-      </c>
-    </row>
-    <row r="51">
+        <v>notify_message_setting-29</v>
+      </c>
+    </row>
+    <row r="51" spans="5:8">
       <c r="E51" t="s">
         <v>145</v>
       </c>
@@ -4311,11 +4760,12 @@
       <c r="G51" t="s">
         <v>66</v>
       </c>
-      <c r="H51">
+      <c r="H51" t="str">
         <f>项目层发送设置!$E$8</f>
-      </c>
-    </row>
-    <row r="52">
+        <v>notify_message_setting-8</v>
+      </c>
+    </row>
+    <row r="52" spans="5:8">
       <c r="E52" t="s">
         <v>147</v>
       </c>
@@ -4325,11 +4775,12 @@
       <c r="G52" t="s">
         <v>66</v>
       </c>
-      <c r="H52">
+      <c r="H52" t="str">
         <f>项目层发送设置!$E$9</f>
-      </c>
-    </row>
-    <row r="53">
+        <v>notify_message_setting-9</v>
+      </c>
+    </row>
+    <row r="53" spans="5:8">
       <c r="E53" t="s">
         <v>149</v>
       </c>
@@ -4339,11 +4790,12 @@
       <c r="G53" t="s">
         <v>66</v>
       </c>
-      <c r="H53">
+      <c r="H53" t="str">
         <f>项目层发送设置!$E$13</f>
-      </c>
-    </row>
-    <row r="54">
+        <v>notify_message_setting-13</v>
+      </c>
+    </row>
+    <row r="54" spans="5:8">
       <c r="E54" t="s">
         <v>150</v>
       </c>
@@ -4353,11 +4805,12 @@
       <c r="G54" t="s">
         <v>66</v>
       </c>
-      <c r="H54">
+      <c r="H54" t="str">
         <f>项目层发送设置!$E$10</f>
-      </c>
-    </row>
-    <row r="55">
+        <v>notify_message_setting-10</v>
+      </c>
+    </row>
+    <row r="55" spans="5:8">
       <c r="E55" t="s">
         <v>151</v>
       </c>
@@ -4367,11 +4820,12 @@
       <c r="G55" t="s">
         <v>66</v>
       </c>
-      <c r="H55">
+      <c r="H55" t="str">
         <f>项目层发送设置!$E$12</f>
-      </c>
-    </row>
-    <row r="56">
+        <v>notify_message_setting-12</v>
+      </c>
+    </row>
+    <row r="56" spans="5:8">
       <c r="E56" t="s">
         <v>152</v>
       </c>
@@ -4381,11 +4835,12 @@
       <c r="G56" t="s">
         <v>66</v>
       </c>
-      <c r="H56">
+      <c r="H56" t="str">
         <f>项目层发送设置!$E$11</f>
-      </c>
-    </row>
-    <row r="57">
+        <v>notify_message_setting-11</v>
+      </c>
+    </row>
+    <row r="57" spans="5:8">
       <c r="E57" t="s">
         <v>153</v>
       </c>
@@ -4395,11 +4850,13 @@
       <c r="G57" t="s">
         <v>66</v>
       </c>
-      <c r="H57">
+      <c r="H57" t="str">
         <f>项目层发送设置!$E$30</f>
+        <v>notify_message_setting-30</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>